--- a/analyses/inputs/LB/Paraguay_input.xlsx
+++ b/analyses/inputs/LB/Paraguay_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Optima\Optima Nutrition\Papers\WHA costings\Databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5361632E-EC12-4B29-B002-DBBC1E1BF867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{495DB7CF-537C-4769-B11A-9F32839400A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="961" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6210,7 +6210,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -7073,8 +7073,8 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7608,24 +7608,24 @@
         <v>85</v>
       </c>
       <c r="C12" s="93">
-        <f>diarrhoea_1mo/26</f>
-        <v>9.201765929836539E-2</v>
+        <f>diarrhoea_1mo</f>
+        <v>2.3924591417575001</v>
       </c>
       <c r="D12" s="93">
-        <f>diarrhoea_1_5mo/26</f>
-        <v>0.13368739096846155</v>
+        <f>diarrhoea_1_5mo</f>
+        <v>3.4758721651800002</v>
       </c>
       <c r="E12" s="93">
-        <f>diarrhoea_6_11mo/26</f>
-        <v>0.13368739096846155</v>
+        <f>diarrhoea_6_11mo</f>
+        <v>3.4758721651800002</v>
       </c>
       <c r="F12" s="93">
-        <f>diarrhoea_12_23mo/26</f>
-        <v>0.10079487051230769</v>
+        <f>diarrhoea_12_23mo</f>
+        <v>2.6206666333199999</v>
       </c>
       <c r="G12" s="93">
-        <f>diarrhoea_24_59mo/26</f>
-        <v>0.10079487051230769</v>
+        <f>diarrhoea_24_59mo</f>
+        <v>2.6206666333199999</v>
       </c>
       <c r="H12" s="94">
         <v>0</v>
@@ -12901,6 +12901,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12910,12 +12916,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -21323,8 +21323,8 @@
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21619,7 +21619,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D10:D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21734,9 +21734,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="81"/>
-      <c r="D9" s="81" t="s">
-        <v>216</v>
-      </c>
+      <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
